--- a/data/income_statement/2digits/size/38_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/38_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>38-Waste collection, treatment and disposal activities; materials recovery</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>38-Waste collection, treatment and disposal activities; materials recovery</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,299 +841,339 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1529167.45056</v>
+        <v>1508439.47868</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1946398.32813</v>
+        <v>1931865.93708</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3322816.65732</v>
+        <v>3287689.96706</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3901591.421560001</v>
+        <v>3801243.57142</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4056084.88426</v>
+        <v>3966659.43496</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4870575.66191</v>
+        <v>4815120.61167</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5310776.135629999</v>
+        <v>5263941.4055</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5971347.62058</v>
+        <v>5841702.232379999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8460690.640079999</v>
+        <v>8144799.45582</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6385799.72821</v>
+        <v>5901186.04426</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6566664.047719999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5666675.125670001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7576048.895</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1474903.31472</v>
+        <v>1457875.86082</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1918779.48024</v>
+        <v>1904519.92723</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3258159.95446</v>
+        <v>3224769.814890001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3819717.68674</v>
+        <v>3725871.42929</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4010094.44294</v>
+        <v>3931749.44328</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4809081.352279999</v>
+        <v>4757580.02306</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5023754.036649999</v>
+        <v>4981009.108309999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5855838.651879999</v>
+        <v>5730091.177639999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8318475.881630001</v>
+        <v>8048047.15514</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6230584.71634</v>
+        <v>5822743.62864</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5847423.81423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5010893.22718</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6937697.775</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>36022.99336</v>
+        <v>32885.539</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>9885.39811</v>
+        <v>9784.070709999998</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>48173.32786</v>
+        <v>47759.1726</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>41698.30197</v>
+        <v>40608.12048</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>20207.66299</v>
+        <v>19435.41852</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>12411.98622</v>
+        <v>12358.04222</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>6882.99778</v>
+        <v>6028.350649999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>34512.39573</v>
+        <v>34494.16304</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>28742.8215</v>
+        <v>26554.10745</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>56533.60738</v>
+        <v>56227.04164</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>608359.7445199999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>600931.4952500002</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>584661.535</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>18241.14248</v>
+        <v>17678.07886</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>17733.44978</v>
+        <v>17561.93914</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>16483.375</v>
+        <v>15160.97957</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>40175.43285</v>
+        <v>34764.02165</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>25782.77833</v>
+        <v>15474.57316</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>49082.32341</v>
+        <v>45182.54639</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>280139.1012</v>
+        <v>276903.94654</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>80996.57296999999</v>
+        <v>77116.89170000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>113471.93695</v>
+        <v>70198.19322999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>98681.40449</v>
+        <v>22215.37398</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>110880.48897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>54850.40324</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>53689.585</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2177.37217</v>
+        <v>2165.39515</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>3361.78631</v>
+        <v>3304.89752</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6519.092519999999</v>
+        <v>6446.83202</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>13460.16967</v>
+        <v>12468.53109</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>17306.83446</v>
+        <v>8201.892469999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>18771.09261</v>
+        <v>17900.37724</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>26723.89464</v>
+        <v>25677.03617</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>264601.16923</v>
+        <v>262393.35801</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>27748.14291</v>
+        <v>19865.22482</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>58636.41913</v>
+        <v>54697.25607</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>81659.80190000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>74529.80222</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>48716.894</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>946.8867299999999</v>
+        <v>946.49154</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1356.43211</v>
+        <v>1299.62056</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5768.825</v>
+        <v>5732.73068</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>12852.54515</v>
+        <v>12001.29441</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>12427.1758</v>
+        <v>3470.60469</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7046.527709999999</v>
+        <v>6521.26774</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>10173.27448</v>
+        <v>9136.20074</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>249806.41671</v>
+        <v>248033.04531</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>17195.50309</v>
+        <v>11586.17498</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>50638.9199</v>
+        <v>47499.31023</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>50225.99808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>43952.61973999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>25161.132</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1152.63555</v>
+        <v>1141.05372</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>719.2233299999999</v>
+        <v>719.22333</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>106.12131</v>
+        <v>71.87913999999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>361.74338</v>
+        <v>240.47067</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3634.70283</v>
+        <v>3486.33195</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>6283.723899999999</v>
+        <v>5938.2685</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>10544.04515</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6677.22405</v>
+        <v>6576.49678</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2469.7679</v>
+        <v>306.3529300000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1627.34589</v>
+        <v>866.8455</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>945.8235900000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>89.20225000000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2352.503</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>77.84989</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1286.13087</v>
+        <v>1286.05363</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>644.14621</v>
+        <v>642.2221999999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>245.88114</v>
+        <v>226.76601</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>1244.95583</v>
@@ -1241,220 +1182,250 @@
         <v>5440.841</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6006.57501</v>
+        <v>5996.79028</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8117.528470000001</v>
+        <v>7783.81592</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>8082.87192</v>
+        <v>7972.696910000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>6370.15334</v>
+        <v>6331.10034</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>30487.98023</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>21203.259</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1526990.07839</v>
+        <v>1506274.08353</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1943036.54182</v>
+        <v>1928561.03956</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3316297.5648</v>
+        <v>3281243.13504</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3888131.251889999</v>
+        <v>3788775.04033</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4038778.0498</v>
+        <v>3958457.54249</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4851804.569300001</v>
+        <v>4797220.23443</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5284052.24099</v>
+        <v>5238264.36933</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5706746.451350001</v>
+        <v>5579308.87437</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>8432942.497169999</v>
+        <v>8124934.231</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6327163.30908</v>
+        <v>5846488.78819</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6485004.24582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5592145.323450001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7527332.001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1316084.79056</v>
+        <v>1299445.09293</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1715340.55236</v>
+        <v>1701636.94629</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2959072.41723</v>
+        <v>2932337.47971</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3453629.10308</v>
+        <v>3368278.90124</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3656613.30863</v>
+        <v>3591685.37999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4468814.08619</v>
+        <v>4428700.060690001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4882597.67446</v>
+        <v>4863866.68915</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5277507.99743</v>
+        <v>5182023.658770001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7698282.132</v>
+        <v>7454126.25273</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5428347.64609</v>
+        <v>5037244.46512</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5646750.1315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4891907.31257</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6448739.572</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>57727.51609</v>
+        <v>41087.81846</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>50360.31266</v>
+        <v>40502.11592</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>154310.64234</v>
+        <v>148007.87907</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>258417.54418</v>
+        <v>223023.57982</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>519086.37667</v>
+        <v>487105.78633</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>572743.59649</v>
+        <v>528762.26232</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>657154.80487</v>
+        <v>621715.03265</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>786888.8596500001</v>
+        <v>733534.22104</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>849134.07124</v>
+        <v>789546.08132</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>841430.1976</v>
+        <v>573695.58604</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1404446.05438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>944598.6535599999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2340658.831</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>318638.15206</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>520341.48011</v>
+        <v>519964.12775</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1327891.03996</v>
+        <v>1327420.58806</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1539255.21328</v>
+        <v>1523062.8394</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1374018.74846</v>
+        <v>1325410.17093</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1885853.59067</v>
+        <v>1885597.33331</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1452356.44796</v>
+        <v>1445431.80588</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1236697.98579</v>
+        <v>1235112.08328</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2857052.79578</v>
+        <v>2759880.48542</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1809252.17609</v>
+        <v>1802225.48939</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1544338.31324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1528605.15182</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1551824.748</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>927986.82174</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1141244.33061</v>
+        <v>1137776.27364</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1475766.64573</v>
+        <v>1455818.69932</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1655790.89398</v>
+        <v>1622027.03038</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1760848.04606</v>
+        <v>1777639.31301</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1993250.34278</v>
+        <v>1997558.25046</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2761666.974</v>
+        <v>2785331.6608</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3228662.85897</v>
+        <v>3188119.06143</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>3963286.72141</v>
+        <v>3890181.31849</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2756810.04454</v>
+        <v>2657386.01003</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2682619.16564</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2415780.92019</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2387178.623</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>11732.30067</v>
@@ -1463,115 +1434,130 @@
         <v>3394.42898</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1104.0892</v>
+        <v>1090.31326</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>165.45164</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2660.13744</v>
+        <v>1530.10972</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>16966.55625</v>
+        <v>16782.2146</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>11419.44763</v>
+        <v>11388.18982</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>25258.29302</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>28808.54357</v>
+        <v>14518.3675</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>20855.22786</v>
+        <v>3937.37966</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>15346.59824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2922.587</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>169077.37</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>210905.28783</v>
+        <v>206828.9906</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>227695.98946</v>
+        <v>226924.09327</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>357225.14757</v>
+        <v>348905.65533</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>434502.1488099999</v>
+        <v>420496.13909</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>382164.7411699999</v>
+        <v>366772.1625</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>382990.48311</v>
+        <v>368520.17374</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>401454.56653</v>
+        <v>374397.68018</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>429238.4539199999</v>
+        <v>397285.2156</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>734660.36517</v>
+        <v>670807.97827</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>898815.66299</v>
+        <v>809244.32307</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>838254.1143199999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>700238.01088</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1078592.429</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>121381.96797</v>
+        <v>120185.46521</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>149235.98258</v>
+        <v>144820.24349</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>196720.69663</v>
+        <v>181644.59695</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>237811.58854</v>
+        <v>201689.11365</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>257747.18648</v>
+        <v>230108.38293</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>273510.16889</v>
+        <v>264119.52057</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>277299.87253</v>
+        <v>264300.98412</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>320509.64249</v>
+        <v>291986.0577</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>370083.4727100001</v>
+        <v>324997.56418</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>367685.65235</v>
+        <v>301987.89722</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>410179.60367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>322532.18241</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>373558.279</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1583,7 +1569,7 @@
         <v>85.11702000000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2380.85241</v>
+        <v>209.87878</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>138.73724</v>
@@ -1604,169 +1590,194 @@
         <v>316.84086</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3202.6965</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>205.99991</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1555.559</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>13845.40367</v>
+        <v>13355.28838</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>18450.0583</v>
+        <v>17628.88762</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>29072.92544</v>
+        <v>27434.14795</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>42214.13929000001</v>
+        <v>37280.85537999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>42869.50872</v>
+        <v>41130.53509</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>26364.07323</v>
+        <v>24894.50546</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>22240.15305</v>
+        <v>20321.52478</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>21758.0452</v>
+        <v>18830.95713</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>39645.48008</v>
+        <v>35129.70897</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>44423.92309999999</v>
+        <v>38599.45243</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>61036.27926</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>48319.18441</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>56693.812</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>107536.5643</v>
+        <v>106830.17683</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>130637.74981</v>
+        <v>127043.1814</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>167562.65417</v>
+        <v>154125.33198</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>193216.59684</v>
+        <v>164198.37949</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>214738.94052</v>
+        <v>188839.1106</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>246771.97042</v>
+        <v>238850.88987</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>254790.9318</v>
+        <v>243710.67166</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>298730.67488</v>
+        <v>273134.17816</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>330206.52546</v>
+        <v>289636.38804</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>322944.88839</v>
+        <v>263071.60393</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>345940.62791</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>274006.99809</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>315308.908</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>89523.31986000002</v>
+        <v>86643.52539000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>78460.00688</v>
+        <v>82103.84978</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>160504.45094</v>
+        <v>167261.05838</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>196690.56027</v>
+        <v>218807.02544</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>124417.55469</v>
+        <v>136663.77957</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>109480.31422</v>
+        <v>104400.65317</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>124154.694</v>
+        <v>110096.69606</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>108728.81143</v>
+        <v>105299.1579</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>364576.89246</v>
+        <v>345810.41409</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>531130.01064</v>
+        <v>507256.42585</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>428074.51065</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>377705.82847</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>705034.15</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>32587.09207</v>
+        <v>25858.43013</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>38312.24709</v>
+        <v>35532.08043</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>44606.44668000001</v>
+        <v>41498.4713</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>73438.16064</v>
+        <v>56941.70967</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>97774.9231</v>
+        <v>67515.82925999998</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>127415.66929</v>
+        <v>102530.92858</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>230707.02015</v>
+        <v>203576.49188</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>224765.25959</v>
+        <v>190848.19857</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>332520.56523</v>
+        <v>233804.36414</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>631220.30724</v>
+        <v>354729.89317</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>596453.4687000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>487317.1365</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1351015.686</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1849.43796</v>
@@ -1787,25 +1798,30 @@
         <v>10389.46096</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>20030.96912</v>
+        <v>13058.69364</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>23436.22552</v>
+        <v>10857.37926</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>18847.94463</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>20091.05262</v>
+        <v>12432.79544</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>22042.08648</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4.340689999999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>181.816</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,7 +1833,7 @@
         <v>1207.68613</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>9122.47832</v>
+        <v>4457.87274</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>5987.10167</v>
@@ -1832,58 +1848,68 @@
         <v>1097.71016</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>36014.77332</v>
+        <v>3927.72755</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>58835.20899</v>
+        <v>750</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2530.16319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.58123</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>5594.276</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>9188.282979999998</v>
+        <v>9175.110919999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6526.3702</v>
+        <v>6525.5474</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>6179.30894</v>
+        <v>5385.30743</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>14150.38699</v>
+        <v>7083.14242</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>15898.68215</v>
+        <v>5731.08919</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>22691.47629</v>
+        <v>16014.90246</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>43636.88415</v>
+        <v>38344.03693</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>59778.92613</v>
+        <v>47272.70815</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>76045.54959000001</v>
+        <v>61033.09293999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>64226.40215000001</v>
+        <v>27399.23932</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>36301.73415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>13866.05679</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>42662.596</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1916,13 +1942,18 @@
         <v>44.9225</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>193.509</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3037.496</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3172.7073</v>
@@ -1931,37 +1962,42 @@
         <v>9058.58418</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>6766.80263</v>
+        <v>6711.52281</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6094.5257</v>
+        <v>6047.418180000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>9313.95175</v>
+        <v>9276.49646</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>12661.00994</v>
+        <v>5931.37411</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>13125.19802</v>
+        <v>8375.19802</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6179.91729</v>
+        <v>6025.522019999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>709.76561</v>
+        <v>621.67744</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1026.55634</v>
+        <v>327.61028</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1527.76122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1330.12495</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>167.361</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>254.27123</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>622.5</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>10008.24844</v>
+        <v>3292.758560000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>14485.50127</v>
+        <v>11734.70748</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>6576.41537</v>
+        <v>4659.444689999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>18224.85793</v>
+        <v>13826.53353</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>43941.96458</v>
+        <v>23239.95978</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>44151.43095</v>
+        <v>39986.29321</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>110125.85692</v>
+        <v>98949.36094999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>105088.74793</v>
+        <v>96441.33532</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>155217.56409</v>
+        <v>106197.99652</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>444982.73591</v>
+        <v>276901.95349</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>489044.78902</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>433150.2045100001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1177861.193</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.383</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,92 +2164,107 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>8114.14416</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>8179.44209</v>
+        <v>8150.89202</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>12128.51245</v>
+        <v>11786.78908</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>19977.58258</v>
+        <v>19658.41368</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>16474.30383</v>
+        <v>17122.26304</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>30465.43819</v>
+        <v>23152.04487999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>39872.43546999999</v>
+        <v>40933.52587</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>27406.82808</v>
+        <v>27376.63918</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>44621.019</v>
+        <v>42111.97607</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>42012.33654</v>
+        <v>36872.27995</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>44813.42564</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>38965.82833</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>120888.065</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>23402.60952</v>
+        <v>16891.84864</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>17907.77695</v>
+        <v>15836.19881</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>52875.65985999999</v>
+        <v>48716.87479</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>38007.17823</v>
+        <v>35192.14395000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>81350.12576</v>
+        <v>32360.7085</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>142370.75732</v>
+        <v>119543.70715</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>157151.71905</v>
+        <v>148718.26338</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>146575.28689</v>
+        <v>132872.70871</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>204317.64349</v>
+        <v>135008.32189</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>560039.1838699999</v>
+        <v>307606.33574</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>543250.0064</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>461979.63396</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1241254.183</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>184.55755</v>
+        <v>43.29743</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>40.39126</v>
@@ -2216,7 +2282,7 @@
         <v>79.45325</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>30.36578</v>
+        <v>30.36268</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>5.29878</v>
@@ -2228,13 +2294,18 @@
         <v>83.06918</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>187.97894</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>38.15014</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>605.328</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>7526.09114</v>
@@ -2243,37 +2314,42 @@
         <v>7690.96737</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>16869.35203</v>
+        <v>16765.07179</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>18650.50265</v>
+        <v>18475.4934</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2464.48774</v>
+        <v>2247.36522</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>69687.53909999999</v>
+        <v>55375.0267</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>17077.61784</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>7226.14013</v>
+        <v>7200.85467</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2664.99084</v>
+        <v>2061.95352</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>16879.87371</v>
+        <v>15870.03426</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4265.04542</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3438.63166</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1409.716</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2303,55 +2379,65 @@
         <v>0.14144</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>10453.47</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>9362.45912</v>
+        <v>2992.95836</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>7354.66315</v>
+        <v>5283.35682</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>21688.74063</v>
+        <v>17634.36339</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>14922.50978</v>
+        <v>12336.564</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>73029.54676000001</v>
+        <v>25039.76761</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>50982.25645</v>
+        <v>44847.88188</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>125764.45804</v>
+        <v>118351.91792</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>129965.80249</v>
+        <v>116375.99208</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>179840.37747</v>
+        <v>118648.15544</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>523654.9029</v>
+        <v>283167.66019</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>511205.91122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>431415.91869</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1201120.099</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>311.91124</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0.38283</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,131 +2516,151 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>6017.59047</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2364.36717</v>
+        <v>2364.09536</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>14185.87331</v>
+        <v>14185.74572</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4302.94648</v>
+        <v>4248.86723</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>5129.37394</v>
+        <v>4346.85835</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>21113.09462</v>
+        <v>18732.93142</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>14275.2914</v>
+        <v>13254.37895</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>9361.852069999999</v>
+        <v>9274.36976</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>21806.78884</v>
+        <v>14292.72659</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>8967.86808</v>
+        <v>8485.572109999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>27590.68799</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>27086.55064</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>38119.04</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>56289.47176</v>
+        <v>52777.00186</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>45728.37207</v>
+        <v>44453.53018</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>46117.87497</v>
+        <v>39937.19398</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>68509.05353999999</v>
+        <v>46685.1849</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>76650.94793000001</v>
+        <v>53456.70023</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>104397.70419</v>
+        <v>101107.97488</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>159669.82009</v>
+        <v>152873.51351</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>196411.85449</v>
+        <v>186338.38486</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>264827.67084</v>
+        <v>226062.3208</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>339577.83522</v>
+        <v>221475.58246</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>238687.38726</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>178946.72809</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>230137.901</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>45965.59789</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>37958.1214</v>
+        <v>36683.27951</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>39059.19119</v>
+        <v>32878.5102</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>63662.45596</v>
+        <v>41838.58732</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>56651.13752</v>
+        <v>48530.19901</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>92235.40545999999</v>
+        <v>90822.26400999998</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>138074.04761</v>
+        <v>132399.12885</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>164869.18398</v>
+        <v>156114.08712</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>233638.33886</v>
+        <v>212770.17836</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>281042.89294</v>
+        <v>214587.37018</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>218167.35346</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>178945.07882</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>223295.851</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>10323.87387</v>
+        <v>6811.403969999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>7770.25067</v>
@@ -2561,109 +2672,124 @@
         <v>4846.59758</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>19999.81041</v>
+        <v>4926.50122</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>12162.29873</v>
+        <v>10285.71087</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>21595.77248</v>
+        <v>20474.38466</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>31542.67051</v>
+        <v>30224.29774</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>31189.33198</v>
+        <v>13292.14244</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>58534.94228</v>
+        <v>6888.212280000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>20520.0338</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1.64927</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>6842.05</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>42418.33065</v>
+        <v>42833.10502</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>53136.10495</v>
+        <v>57346.20122</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>106117.36279</v>
+        <v>120105.46091</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>163612.48914</v>
+        <v>193871.40626</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>64191.40410000001</v>
+        <v>118362.2001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-9872.477999999999</v>
+        <v>-13720.10028</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>38040.17501</v>
+        <v>12081.41105</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-9493.07036</v>
+        <v>-23063.7371</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>227952.14336</v>
+        <v>218544.13554</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>262733.29879</v>
+        <v>332904.40082</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>242590.58569</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>224096.60292</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>584657.752</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>12661.59309</v>
+        <v>11386.67432</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>31841.42113</v>
+        <v>29105.52013</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>34192.3221</v>
+        <v>32152.57307</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>27028.31823</v>
+        <v>24845.8322</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>25369.66053</v>
+        <v>51375.58029</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>48256.53495</v>
+        <v>57344.53981</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>42427.08062</v>
+        <v>34441.93027</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>49667.40147</v>
+        <v>47300.42548000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>82360.58347</v>
+        <v>72554.38225</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>47503.55037999999</v>
+        <v>39936.72781</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>64528.34201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>40202.52838</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>43302.126</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1065.1233</v>
@@ -2678,124 +2804,139 @@
         <v>4220.9618</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>706.24445</v>
+        <v>27523.7752</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1982.9393</v>
+        <v>28802.46853</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5871.68957</v>
+        <v>5839.332969999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>8400.779719999999</v>
+        <v>8106.72118</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>558.28903</v>
+        <v>557.79129</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>4262.074979999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1777.80483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1651.5131</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1112.565</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>11596.46979</v>
+        <v>10321.55102</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>29504.3918</v>
+        <v>26768.4908</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>33077.12911</v>
+        <v>31037.38008</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>22807.35643</v>
+        <v>20624.8704</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>24663.41608</v>
+        <v>23851.80509</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>46273.59565</v>
+        <v>28542.07128</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>36555.39105</v>
+        <v>28602.5973</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>41266.62175000001</v>
+        <v>39193.7043</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>81802.29444</v>
+        <v>71996.59095999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>43241.4754</v>
+        <v>35674.65283000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>62750.53718</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>38551.01528</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>42189.561</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>17724.91165</v>
+        <v>17704.53927</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>27904.60589</v>
+        <v>27835.30778</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>115282.89757</v>
+        <v>110730.83133</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>25293.02538</v>
+        <v>22607.64497</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>55020.84231</v>
+        <v>43271.62412000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>57386.81273999999</v>
+        <v>53362.06103</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>32908.54973999999</v>
+        <v>26819.08438</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>63240.80654</v>
+        <v>58921.71163</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>61828.96203</v>
+        <v>53959.43762999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>84848.50928</v>
+        <v>52770.93561</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>104685.17033</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>48341.95782</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>52924.947</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>30.89144</v>
+        <v>29.74695</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2501.33908</v>
+        <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2712.16371</v>
+        <v>469.96419</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>5298.30709</v>
+        <v>1084.42112</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>111.56748</v>
@@ -2804,25 +2945,30 @@
         <v>3862.16627</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1561.62084</v>
+        <v>1474.39699</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1725.17465</v>
+        <v>1374.79702</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2979.82251</v>
+        <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3314.23092</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2678.59931</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>7871.824</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2765.11349</v>
+        <v>2765.03609</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>6325.21582</v>
@@ -2834,109 +2980,124 @@
         <v>1302.98047</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4492.008029999999</v>
+        <v>4485.42154</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>11739.32645</v>
+        <v>11748.54975</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1575.66101</v>
+        <v>1572.77791</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>10414.19175</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2953.15375</v>
+        <v>1201.98684</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>12883.16171</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>8759.987230000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8758.77723</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>586.723</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>14959.79816</v>
+        <v>14939.50318</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>21548.49863</v>
+        <v>21480.34501</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>111019.01949</v>
+        <v>108968.29233</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>21277.8812</v>
+        <v>20834.70031</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>45230.52719</v>
+        <v>37701.78146</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>45535.91881</v>
+        <v>41501.94379999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>27470.72246</v>
+        <v>21384.1402</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>51264.99395</v>
+        <v>47033.12289</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>57150.63363</v>
+        <v>51382.65377</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>68985.52506</v>
+        <v>39887.77390000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>92610.95218000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>36904.58128</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>44466.4</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>37355.01209</v>
+        <v>36515.24007</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>57072.92019</v>
+        <v>58616.41357</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>25026.78732</v>
+        <v>41527.20265000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>165347.78199</v>
+        <v>196109.59349</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>34540.22232</v>
+        <v>126466.15627</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-19002.75579</v>
+        <v>-9737.621499999996</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>47558.70589</v>
+        <v>19704.25694</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-23066.47543</v>
+        <v>-34685.02325</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>248483.7648</v>
+        <v>237139.08016</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>225388.33989</v>
+        <v>320070.1930200001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>202433.75737</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>215957.17348</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>575034.931</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>14787.95298</v>
@@ -2948,70 +3109,78 @@
         <v>31324.91613</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>40960.65199</v>
+        <v>39981.72587</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>37475.43525</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>27284.99735</v>
+        <v>25101.79282</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>29092.84924</v>
+        <v>27781.73292</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>32637.60961</v>
+        <v>31605.85165</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>69413.99118</v>
+        <v>66076.91763</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>81888.46290000001</v>
+        <v>77655.60202999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>79235.88731000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>65123.05352</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>119450.57</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>22567.05910999999</v>
+        <v>21727.28708999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>40334.65236</v>
+        <v>41878.14574</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-6298.128810000002</v>
+        <v>10202.28652</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>124387.13</v>
+        <v>156127.86762</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-2935.21293</v>
+        <v>88990.72102</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-46287.75314</v>
+        <v>-34839.41432</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>18465.85665</v>
+        <v>-8077.475979999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-55704.08504000001</v>
+        <v>-66290.87490000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>179069.77362</v>
+        <v>171062.16253</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>143499.87699</v>
+        <v>242414.59099</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>123197.87006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>150834.11996</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>455584.361</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
+      </c>
+      <c r="C59" s="35" t="n">
+        <v>41</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>52</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>59</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>58</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>52</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>49</v>
+      </c>
+      <c r="I59" s="35" t="n">
         <v>55</v>
       </c>
-      <c r="C59" s="35" t="n">
-        <v>42</v>
-      </c>
-      <c r="D59" s="35" t="n">
-        <v>55</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>66</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>69</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>60</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>54</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>64</v>
-      </c>
       <c r="J59" s="35" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>